--- a/data/trans_camb/P11_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P11_R2-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.9899676236638719</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6604598806742211</v>
+        <v>0.6604598806742218</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.050527704621514</v>
@@ -655,7 +655,7 @@
         <v>-0.2892727271365435</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.415091543370528</v>
+        <v>3.415091543370526</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.684579658691539</v>
@@ -664,7 +664,7 @@
         <v>-0.6815892699461978</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.94736720136612</v>
+        <v>1.947367201366119</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.115763551876282</v>
+        <v>-5.785013078951655</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.686042556259868</v>
+        <v>-3.490143306586921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.98905775291497</v>
+        <v>-2.169993646072396</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.482459499446309</v>
+        <v>-2.341015420491279</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.271129273174902</v>
+        <v>-3.483102387535575</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5423703819418834</v>
+        <v>0.05750736150947741</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.60799265100424</v>
+        <v>-3.612932427422272</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.793511944420344</v>
+        <v>-2.519767302156831</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.1421035862063533</v>
+        <v>-0.01984473598697922</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.93412974637374</v>
+        <v>-1.660141774366854</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.574799042573867</v>
+        <v>1.619165489954446</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.259618110163022</v>
+        <v>3.281229700272533</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.739688727103931</v>
+        <v>4.952921212251505</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.814733701105728</v>
+        <v>2.809635922768771</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.296494973840162</v>
+        <v>6.08468693813394</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2544087765467759</v>
+        <v>0.0641845187188901</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.234516603051055</v>
+        <v>1.427823451237018</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.840259603131948</v>
+        <v>3.969058530702269</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2391164434359469</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1595272551585699</v>
+        <v>0.1595272551585701</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2600075007869899</v>
@@ -760,7 +760,7 @@
         <v>-0.07159552146766794</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8452413137171541</v>
+        <v>0.8452413137171537</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.4107812049761609</v>
@@ -769,7 +769,7 @@
         <v>-0.1662041092344618</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4748613942837032</v>
+        <v>0.4748613942837031</v>
       </c>
     </row>
     <row r="8">
@@ -783,28 +783,28 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6493181559724522</v>
+        <v>-0.6303323076212496</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3566823842291924</v>
+        <v>-0.3855190805183915</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4837425127688906</v>
+        <v>-0.4355204015695143</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.616264128790825</v>
+        <v>-0.6112471655266704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05789661746187899</v>
+        <v>-0.01905984755838643</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6905943840653364</v>
+        <v>-0.697483409275207</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5461535965917877</v>
+        <v>-0.4908094421950134</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.04558914577283427</v>
+        <v>-0.008695426008854363</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.5558059649134566</v>
+        <v>-0.4751917947948253</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7074751057239174</v>
+        <v>0.6343016453512469</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.233739404979717</v>
+        <v>1.219850561247027</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.9335870765776</v>
+        <v>2.083358892208922</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.146830333975323</v>
+        <v>1.304210425648993</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.474836721380479</v>
+        <v>2.515279476957919</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1155236203262551</v>
+        <v>0.05021642417535156</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3936127396902142</v>
+        <v>0.4954330736177196</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.287681667923353</v>
+        <v>1.381744064478841</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.5577627706513679</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.660828568673638</v>
+        <v>3.660828568673637</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9791932083653488</v>
+        <v>-0.9941499963133725</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.705397065060805</v>
+        <v>-2.629404776472644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4716885728317179</v>
+        <v>0.4823861721421489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9240247182214143</v>
+        <v>-0.8085710853809616</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.379939867416815</v>
+        <v>-1.661040221673461</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.655817594212885</v>
+        <v>1.718387201358603</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2308507714481619</v>
+        <v>-0.1354108094658747</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.398700689538203</v>
+        <v>-1.2998826124999</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.610277739247129</v>
+        <v>1.564305414562078</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.405515708490319</v>
+        <v>4.341544338805796</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.79870263009975</v>
+        <v>1.825163364592905</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.672037066946277</v>
+        <v>5.406418356975911</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.975140852709274</v>
+        <v>6.018800996750136</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.663716984031879</v>
+        <v>4.30231875637643</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.480610494383987</v>
+        <v>7.505742754769088</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.86952574273032</v>
+        <v>3.961197197934336</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.389624970091098</v>
+        <v>2.363452265186489</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.52772778418603</v>
+        <v>5.339146392350306</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1979054454039746</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.298935580775437</v>
+        <v>1.298935580775436</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3201562112501629</v>
+        <v>-0.3926199421351037</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7206650759228611</v>
+        <v>-0.7411651074878605</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.03224814036668801</v>
+        <v>0.01082923879338589</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2610098428981427</v>
+        <v>-0.2581880883399864</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3466182308773132</v>
+        <v>-0.3875992086554687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2730587125283259</v>
+        <v>0.2967881209277896</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08417176266123463</v>
+        <v>-0.07555997924452108</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3819081881202572</v>
+        <v>-0.35958170158349</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4269789143583469</v>
+        <v>0.3893915533613653</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.638441247668919</v>
+        <v>3.663426821753544</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.549051522565198</v>
+        <v>1.632806004635696</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.654405420364998</v>
+        <v>4.842843261968267</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.914837424282992</v>
+        <v>2.773587413196686</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.346912529354372</v>
+        <v>2.038262906042486</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.529840219337081</v>
+        <v>3.411847061393181</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.96547941591552</v>
+        <v>1.931828314314195</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.28457501302183</v>
+        <v>1.245749379607984</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.093682815691092</v>
+        <v>2.734288247190123</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.1839521100966302</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.141724460546313</v>
+        <v>6.141724460546312</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.3239255356132717</v>
@@ -1083,7 +1083,7 @@
         <v>3.163630423723689</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.974015651148889</v>
+        <v>6.974015651148886</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.726235893682812</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5825111624710422</v>
+        <v>0.556785785604917</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.425229670093735</v>
+        <v>-2.63614855891537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.964384624018791</v>
+        <v>3.141088906011617</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.340049450347336</v>
+        <v>-6.269038525892729</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.313871976374138</v>
+        <v>-3.639344895032118</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6631451987677389</v>
+        <v>0.7388155222725037</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1510755016714802</v>
+        <v>0.3273159225780025</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.98205962263588</v>
+        <v>-1.822952831572243</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.892066302457934</v>
+        <v>3.796636338669103</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.174614277052419</v>
+        <v>5.958642720964454</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.300709713084929</v>
+        <v>2.048992183089163</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.343110855450675</v>
+        <v>9.402554969678006</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.567221902732566</v>
+        <v>5.7064964531282</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.71644917785456</v>
+        <v>11.21732633450581</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.75395827969049</v>
+        <v>12.99940275802817</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.385210919686276</v>
+        <v>5.495435013656997</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.018998408764832</v>
+        <v>3.150153244304901</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.596974154142359</v>
+        <v>9.536456801114451</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.344474817353075</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7593721281828282</v>
+        <v>0.7593721281828278</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5340698171706769</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.113176541106064</v>
+        <v>0.09765593043002899</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4936609061885948</v>
+        <v>-0.5312745935964883</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5490089523093892</v>
+        <v>0.59540098714625</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4767434906825312</v>
+        <v>-0.4927475164544242</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3994923150791114</v>
+        <v>-0.3322651008214853</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01885844826891777</v>
+        <v>0.03006184019406647</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01872562542721395</v>
+        <v>0.04134962569197453</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3058939995156656</v>
+        <v>-0.2829601266167474</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.601692711159083</v>
+        <v>0.5846675284152786</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.261165333467153</v>
+        <v>2.207369137761193</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9330579141602457</v>
+        <v>0.8095864287506656</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.533581294867936</v>
+        <v>3.527855819440063</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9905500646745715</v>
+        <v>1.004250835740268</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.79184823762336</v>
+        <v>1.906461377847217</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.551117889988988</v>
+        <v>2.14982171126832</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.351021791290322</v>
+        <v>1.329249753389141</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7241276282568668</v>
+        <v>0.7640167903685475</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.452659873938813</v>
+        <v>2.409449800717447</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.299788661960945</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.70087316095426</v>
+        <v>6.700873160954258</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.944724941030683</v>
@@ -1297,7 +1297,7 @@
         <v>4.146504901156719</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.799407322655879</v>
+        <v>5.799407322655881</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.158166668231392</v>
@@ -1306,7 +1306,7 @@
         <v>2.521063803440223</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.351074427044225</v>
+        <v>6.351074427044229</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.501999583130841</v>
+        <v>1.406924641293485</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3549067291158552</v>
+        <v>-0.2518786578087384</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.693290921720158</v>
+        <v>4.717549217157663</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7454036077967788</v>
+        <v>0.657701651302983</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.604266998102504</v>
+        <v>1.412294956792124</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.612352847904535</v>
+        <v>3.61858413220081</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.613443351317085</v>
+        <v>1.682722302752179</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.006298808479268</v>
+        <v>1.11369000871765</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.904673846196086</v>
+        <v>4.837954948210339</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.400324538974178</v>
+        <v>5.266502741035901</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.956940589455952</v>
+        <v>3.035846725664955</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.65648450932359</v>
+        <v>8.728998943906166</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.606912803891898</v>
+        <v>5.769591891084532</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.89057041781295</v>
+        <v>6.72690412620605</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.865154947419025</v>
+        <v>7.984658228629995</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.663458492423611</v>
+        <v>4.666097653413507</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.957626017864831</v>
+        <v>4.070823586807471</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.878801841765797</v>
+        <v>7.860487730835973</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3554586194199112</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.832515694595516</v>
+        <v>1.832515694595515</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.6919117442596907</v>
@@ -1411,7 +1411,7 @@
         <v>0.650450760181391</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.638618262418546</v>
+        <v>1.638618262418547</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3256296599841286</v>
+        <v>0.3258622203707705</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.08398631116194773</v>
+        <v>-0.08283234766246865</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.075861345925708</v>
+        <v>1.066068220128452</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1097314587050381</v>
+        <v>0.09280998525050128</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2778271652411397</v>
+        <v>0.231741894328726</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6569375859013913</v>
+        <v>0.62817079069725</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3681098661301354</v>
+        <v>0.3689842010236396</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.221860246023946</v>
+        <v>0.2481912154541637</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.105025647156823</v>
+        <v>1.055046484750028</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.753660018521338</v>
+        <v>1.693407965495827</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.006127723875055</v>
+        <v>0.9659322526378213</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.99970646889179</v>
+        <v>2.885929831278723</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.794571057591149</v>
+        <v>1.752275602703122</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.132939394377072</v>
+        <v>2.026673024716958</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.594804727039225</v>
+        <v>2.432740201670195</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.421629606198736</v>
+        <v>1.367993459059378</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.203255860235058</v>
+        <v>1.240631557604693</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.419145876897702</v>
+        <v>2.419249689368807</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.106395368304219</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.005234364599666</v>
+        <v>5.005234364599664</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>8.655090625877721</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.708806328151973</v>
+        <v>-2.209060237253645</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.108165928538655</v>
+        <v>-1.013001738362041</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.797755462440479</v>
+        <v>1.849455100796751</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.471671827708565</v>
+        <v>5.500713166927967</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.562833454021066</v>
+        <v>4.335031010598041</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>11.0727396446013</v>
+        <v>11.07129700257308</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.456502805928174</v>
+        <v>3.304025481139048</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.949692555861342</v>
+        <v>2.986130039274108</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>7.988920252542624</v>
+        <v>8.08746848091824</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.425034799053884</v>
+        <v>3.467962583518781</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.846801610495803</v>
+        <v>4.923229540437635</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.210891003548461</v>
+        <v>8.266745271211731</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.48010265139385</v>
+        <v>11.56817646054628</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.70622390083904</v>
+        <v>10.5452290051247</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>16.66956956951854</v>
+        <v>16.4501691686384</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.564080847459125</v>
+        <v>7.524682810621056</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.201864778331229</v>
+        <v>7.215490759082888</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.16084233698842</v>
+        <v>12.30616976344925</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4526640906374569</v>
+        <v>-0.3829451823519892</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1708943734218729</v>
+        <v>-0.1843590963027546</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2679647239811733</v>
+        <v>0.1949060466002351</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.9054194786167192</v>
+        <v>0.8813098710076691</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8194656497219254</v>
+        <v>0.7367900611933691</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.918124121404515</v>
+        <v>1.893357752802001</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5996305523445007</v>
+        <v>0.6062483948199225</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.53858072570802</v>
+        <v>0.5182524193312934</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.376834764595845</v>
+        <v>1.427431624870347</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.316201826089682</v>
+        <v>1.327663509440285</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.802570599769937</v>
+        <v>1.732902618138239</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.085597010788995</v>
+        <v>2.775655248757304</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.64231733187165</v>
+        <v>3.996217917412664</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>3.475725315490565</v>
+        <v>3.474388464150561</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>5.730645120275416</v>
+        <v>5.608754095210596</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.309891277690566</v>
+        <v>2.269285215375923</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.213468545223024</v>
+        <v>2.136261210425698</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.692392416022507</v>
+        <v>3.815788634100812</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>4.262230986612692</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>7.720722789759157</v>
+        <v>7.72072278975916</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.762746233090351</v>
@@ -1734,7 +1734,7 @@
         <v>3.133366074188856</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>5.977710485463382</v>
+        <v>5.97771048546338</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.228321746083565</v>
+        <v>-2.18704840672329</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.863590039051482</v>
+        <v>-2.762574689466717</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.955070185988054</v>
+        <v>-1.932009465852439</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.201810182852962</v>
+        <v>3.702507810551185</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.042284486436952</v>
+        <v>1.827733510321165</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>5.046258915232644</v>
+        <v>5.263456551250807</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.817951565443453</v>
+        <v>2.786222434335058</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.10336262636785</v>
+        <v>1.378947201639458</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>3.857184468754418</v>
+        <v>3.99974758453873</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.711338592853024</v>
+        <v>2.801865404722996</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.8797236732292497</v>
+        <v>1.210826457327591</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.760123050320467</v>
+        <v>2.88105862503966</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.116320168227084</v>
+        <v>8.489490061747883</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.754241307572172</v>
+        <v>6.803096571442019</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.24949482201096</v>
+        <v>10.2741462102128</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.876715003827663</v>
+        <v>6.777893943251449</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.136381435149697</v>
+        <v>5.123681590188593</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>7.959731764163887</v>
+        <v>7.934583061200678</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.5684439459955568</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>1.084454626724543</v>
+        <v>1.084454626724542</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8462135968761295</v>
+        <v>-0.8232145501820667</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-1</v>
+        <v>-0.914895343269145</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7262910393068672</v>
+        <v>-0.7381826207357903</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.4336030641882242</v>
+        <v>0.5008447492602917</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2630853825157558</v>
+        <v>0.2331196129982789</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6545552854479276</v>
+        <v>0.7189763930093664</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4328929417996096</v>
+        <v>0.4106739604280132</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1646603929713577</v>
+        <v>0.2211201796757006</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.609441987788736</v>
+        <v>0.6603262417581269</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.12427450197249</v>
+        <v>3.265839557380469</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.35113717102443</v>
+        <v>2.571800688234094</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.221980666864705</v>
+        <v>3.006013067611479</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.505814970948516</v>
+        <v>1.563811286682416</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.180011003280393</v>
+        <v>1.177859239555217</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.893035649079277</v>
+        <v>2.017437090134046</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.414100992678516</v>
+        <v>1.392568197911935</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.08056909837333</v>
+        <v>1.034072004105525</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.694919065940069</v>
+        <v>1.733411962744693</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>2.346775479302099</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>5.962981593823486</v>
+        <v>5.962981593823488</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.5963015598413561</v>
+        <v>0.5094072075699683</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.2853661871776563</v>
+        <v>-0.3144544674729041</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.4806132756953</v>
+        <v>3.316398385507329</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.448433124429066</v>
+        <v>3.402829752351363</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.680952362410241</v>
+        <v>2.84010061595384</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.167757250261761</v>
+        <v>6.179226005084839</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.351679423378068</v>
+        <v>2.316105227345743</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.533399852575295</v>
+        <v>1.520597469645854</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>5.128657489887994</v>
+        <v>5.161967397884322</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.627875706116494</v>
+        <v>2.639774318763179</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.540240424586079</v>
+        <v>1.576395667480927</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.622815726179875</v>
+        <v>5.56668741867809</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.993043511983262</v>
+        <v>5.9442946309145</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.32897661891738</v>
+        <v>5.226064381998725</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.470609611366879</v>
+        <v>8.44660313146264</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.064912088180636</v>
+        <v>4.087387035139922</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.132145291165529</v>
+        <v>3.185095120753575</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.741705472820743</v>
+        <v>6.74353114310686</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.5391321723883091</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1.369894669917724</v>
+        <v>1.369894669917725</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1484853842524666</v>
+        <v>0.1205094313958499</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.06730547452956374</v>
+        <v>-0.07841214226515432</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.8624671803398291</v>
+        <v>0.8014346493231137</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.5995954520232323</v>
+        <v>0.5981760227453536</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.4707430132548561</v>
+        <v>0.5006846447808126</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.028878506763263</v>
+        <v>1.049411628804571</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.500749398960322</v>
+        <v>0.4866077656740521</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.3236721692853197</v>
+        <v>0.3128571013880068</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.091656521308096</v>
+        <v>1.094275883921101</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.8526070590650018</v>
+        <v>0.8345580683864655</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4999219210922274</v>
+        <v>0.5165454546080567</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.833386779139974</v>
+        <v>1.810038189153801</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.2959614223035</v>
+        <v>1.27922580774834</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.156234888877723</v>
+        <v>1.10887856270333</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.805671748399417</v>
+        <v>1.866941771043407</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.01837799518845</v>
+        <v>1.02025912857615</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7690816669582836</v>
+        <v>0.7879746475708568</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.707938915480827</v>
+        <v>1.689539858809685</v>
       </c>
     </row>
     <row r="46">
